--- a/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
+++ b/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
@@ -31,9 +31,6 @@
     <t>U.S. Department of Energy</t>
   </si>
   <si>
-    <t>Buildings Energy Data Book</t>
-  </si>
-  <si>
     <t>http://buildingsdatabook.eren.doe.gov/TableView.aspx?table=2.1.14</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>Cash Flow Entity</t>
+  </si>
+  <si>
+    <t>Buildings Energy Data Book (2011 edition)</t>
   </si>
 </sst>
 </file>
@@ -201,7 +201,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -555,6 +555,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -589,10 +593,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -910,7 +910,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -928,22 +928,22 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,22 +958,22 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1005,22 +1005,22 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -1048,64 +1048,64 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="60" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="62"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="64"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="63" t="s">
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="63" t="s">
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="64"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="66"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1261,91 +1261,91 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="58"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="58"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="60"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
         <v>Ownership</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1402,22 +1402,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" s="27">
         <v>0.75</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" s="27">
         <f>1-G30</f>
@@ -1435,15 +1435,15 @@
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="32">
         <f>C23</f>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="33">
         <f>C24*G31</f>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="36" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="34">
         <f>C21+(C24*G30)</f>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>36</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1555,7 +1555,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="42"/>
       <c r="G5" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -1580,7 +1580,7 @@
       <c r="E6" s="40"/>
       <c r="F6" s="13"/>
       <c r="G6" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -1607,7 +1607,7 @@
       <c r="E7" s="40"/>
       <c r="F7" s="13"/>
       <c r="G7" s="48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -1634,7 +1634,7 @@
       <c r="E8" s="40"/>
       <c r="F8" s="13"/>
       <c r="G8" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
@@ -1661,7 +1661,7 @@
       <c r="E9" s="40"/>
       <c r="F9" s="13"/>
       <c r="G9" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -1688,7 +1688,7 @@
       <c r="E10" s="40"/>
       <c r="F10" s="13"/>
       <c r="G10" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
@@ -1715,7 +1715,7 @@
       <c r="E11" s="40"/>
       <c r="F11" s="13"/>
       <c r="G11" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
@@ -1738,7 +1738,7 @@
       <c r="E12" s="40"/>
       <c r="F12" s="13"/>
       <c r="G12" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="40"/>
@@ -1761,7 +1761,7 @@
       <c r="E13" s="40"/>
       <c r="F13" s="13"/>
       <c r="G13" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
@@ -1784,7 +1784,7 @@
       <c r="E14" s="40"/>
       <c r="F14" s="13"/>
       <c r="G14" s="52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
@@ -1820,39 +1820,39 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="66"/>
+        <v>25</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="68"/>
     </row>
     <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="32">
         <f>K10</f>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="33">
         <f>K6</f>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="34">
         <v>0</v>
@@ -1902,46 +1902,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="68">
+        <v>30</v>
+      </c>
+      <c r="B2" s="56">
         <f>Residential!C34</f>
         <v>1.9289972368294446E-2</v>
       </c>
-      <c r="C2" s="68">
+      <c r="C2" s="56">
         <f>Commercial!C20</f>
         <v>0.23714188688565077</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="68">
+        <v>31</v>
+      </c>
+      <c r="B3" s="56">
         <f>Residential!C35</f>
         <v>3.6530988312536733E-2</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="56">
         <f>Commercial!C21</f>
         <v>0.76285811311434926</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="68">
+        <v>32</v>
+      </c>
+      <c r="B4" s="56">
         <f>Residential!C36</f>
         <v>0.94417903931916869</v>
       </c>

--- a/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
+++ b/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>Sources:</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Buildings Energy Data Book (2011 edition)</t>
+  </si>
+  <si>
+    <t>Urban Residential</t>
+  </si>
+  <si>
+    <t>Rural Residential</t>
   </si>
 </sst>
 </file>
@@ -1889,29 +1895,33 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C1" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1920,11 +1930,15 @@
         <v>1.9289972368294446E-2</v>
       </c>
       <c r="C2" s="56">
+        <f>B2</f>
+        <v>1.9289972368294446E-2</v>
+      </c>
+      <c r="D2" s="56">
         <f>Commercial!C20</f>
         <v>0.23714188688565077</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1933,11 +1947,15 @@
         <v>3.6530988312536733E-2</v>
       </c>
       <c r="C3" s="56">
+        <f t="shared" ref="C3:C4" si="0">B3</f>
+        <v>3.6530988312536733E-2</v>
+      </c>
+      <c r="D3" s="56">
         <f>Commercial!C21</f>
         <v>0.76285811311434926</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1945,7 +1963,11 @@
         <f>Residential!C36</f>
         <v>0.94417903931916869</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="56">
+        <f t="shared" si="0"/>
+        <v>0.94417903931916869</v>
+      </c>
+      <c r="D4">
         <f>Commercial!C22</f>
         <v>0</v>
       </c>
